--- a/assets/src/arquivos/Info Login MedCof Scripts.xlsx
+++ b/assets/src/arquivos/Info Login MedCof Scripts.xlsx
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,14 +114,9 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Slack-Lato"/>
+      <name val="Lato"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -157,11 +152,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,7 +373,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="21.63"/>
     <col customWidth="1" min="2" max="2" width="35.13"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="25.75"/>
+    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -451,13 +445,13 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
